--- a/Banco Central/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Serie</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1007,6 +1016,75 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>200000</v>
+      </c>
+      <c r="C25">
+        <v>368000</v>
+      </c>
+      <c r="D25">
+        <v>200000</v>
+      </c>
+      <c r="E25">
+        <v>102000</v>
+      </c>
+      <c r="F25">
+        <v>98000</v>
+      </c>
+      <c r="G25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>200000</v>
+      </c>
+      <c r="C26">
+        <v>407000</v>
+      </c>
+      <c r="D26">
+        <v>200000</v>
+      </c>
+      <c r="E26">
+        <v>103000</v>
+      </c>
+      <c r="F26">
+        <v>97000</v>
+      </c>
+      <c r="G26">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>200000</v>
+      </c>
+      <c r="C27">
+        <v>417000</v>
+      </c>
+      <c r="D27">
+        <v>100000</v>
+      </c>
+      <c r="E27">
+        <v>60000</v>
+      </c>
+      <c r="F27">
+        <v>40000</v>
+      </c>
+      <c r="G27">
+        <v>0.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Serie</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1085,6 +1091,52 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>200000</v>
+      </c>
+      <c r="C28">
+        <v>376000</v>
+      </c>
+      <c r="D28">
+        <v>100000</v>
+      </c>
+      <c r="E28">
+        <v>74000</v>
+      </c>
+      <c r="F28">
+        <v>26000</v>
+      </c>
+      <c r="G28">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>200000</v>
+      </c>
+      <c r="C29">
+        <v>281000</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+      <c r="E29">
+        <v>40000</v>
+      </c>
+      <c r="F29">
+        <v>60000</v>
+      </c>
+      <c r="G29">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
